--- a/biology/Biochimie/Protomère/Protomère.xlsx
+++ b/biology/Biochimie/Protomère/Protomère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Protom%C3%A8re</t>
+          <t>Protomère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un protomère est la sous-unité de base d'une protéine multimérique. Il est appelé monomère en dehors du contexte de l'allostérie. Un protomère est une unité fonctionnelle dans le sens où il peut être composé de plusieurs sous-unités protéiques. Au sein de la structure quaternaire, les différents protomères sont liés entre eux généralement par liaisons faibles, voire parfois par des ponts disulfures.
 La notion de protomère est directement liée aux enzymes à structure quaternaire (enzymes comportant plus d'une sous-unité). On appelle ainsi protomère la sous-unité ou l'association de sous-unités se répétant n fois, n étant un nombre pair.
